--- a/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-2.xlsx
+++ b/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Undecimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C38E67-62BE-40C9-97A7-A0CBAA673CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689804AC-E232-49B5-9D3F-8149C7DC8C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>Codigo</t>
   </si>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +225,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D37"/>
+  <dimension ref="A3:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +559,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -562,8 +572,11 @@
       <c r="D3" s="6">
         <v>43999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1601</v>
       </c>
@@ -573,8 +586,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>870</v>
       </c>
@@ -587,8 +601,9 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3820</v>
       </c>
@@ -598,8 +613,9 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>799</v>
       </c>
@@ -612,8 +628,9 @@
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3601</v>
       </c>
@@ -626,8 +643,11 @@
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4059</v>
       </c>
@@ -640,8 +660,11 @@
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2757</v>
       </c>
@@ -654,8 +677,11 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1167</v>
       </c>
@@ -668,8 +694,9 @@
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>771</v>
       </c>
@@ -682,8 +709,9 @@
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>805</v>
       </c>
@@ -693,8 +721,9 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1521</v>
       </c>
@@ -707,8 +736,11 @@
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>814</v>
       </c>
@@ -721,8 +753,9 @@
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>851</v>
       </c>
@@ -735,8 +768,9 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1391</v>
       </c>
@@ -749,8 +783,9 @@
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4304</v>
       </c>
@@ -763,8 +798,11 @@
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3548</v>
       </c>
@@ -777,8 +815,11 @@
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>777</v>
       </c>
@@ -791,8 +832,11 @@
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4305</v>
       </c>
@@ -805,8 +849,11 @@
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2459</v>
       </c>
@@ -819,8 +866,11 @@
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3188</v>
       </c>
@@ -830,8 +880,11 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3668</v>
       </c>
@@ -844,8 +897,9 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3186</v>
       </c>
@@ -858,8 +912,11 @@
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>746</v>
       </c>
@@ -869,8 +926,11 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>4058</v>
       </c>
@@ -883,8 +943,11 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>829</v>
       </c>
@@ -897,8 +960,9 @@
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>749</v>
       </c>
@@ -911,8 +975,11 @@
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1424</v>
       </c>
@@ -925,8 +992,11 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>938</v>
       </c>
@@ -939,8 +1009,11 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>940</v>
       </c>
@@ -953,8 +1026,11 @@
       <c r="D32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1477</v>
       </c>
@@ -964,8 +1040,9 @@
       <c r="C33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1462</v>
       </c>
@@ -978,8 +1055,11 @@
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2111</v>
       </c>
@@ -992,8 +1072,11 @@
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>754</v>
       </c>
@@ -1006,14 +1089,21 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="7">
         <f>COUNTA(D4:D36)</f>
         <v>27</v>
+      </c>
+      <c r="E37" s="7">
+        <f>COUNTA(E4:E36)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-2.xlsx
+++ b/2020/cursos/informatica/Undecimo grado/Listados Informatica 11-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Undecimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689804AC-E232-49B5-9D3F-8149C7DC8C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5861236-73D9-44DE-BF40-D249D5B4B354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
   <si>
     <t>Codigo</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>TORRES GOMEZ SARA</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CEL</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,6 +234,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +553,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E37"/>
+  <dimension ref="A3:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <pane ySplit="615" topLeftCell="A13" activePane="bottomLeft"/>
+      <selection activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,11 +566,12 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,8 +587,17 @@
       <c r="E3" s="6">
         <v>44020</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="6">
+        <v>44027</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1601</v>
       </c>
@@ -587,8 +608,15 @@
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>870</v>
       </c>
@@ -602,8 +630,15 @@
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3820</v>
       </c>
@@ -614,8 +649,15 @@
         <v>7</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>799</v>
       </c>
@@ -629,8 +671,15 @@
         <v>4</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3601</v>
       </c>
@@ -646,8 +695,17 @@
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4059</v>
       </c>
@@ -663,8 +721,17 @@
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2757</v>
       </c>
@@ -680,8 +747,15 @@
       <c r="E10" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1167</v>
       </c>
@@ -695,8 +769,17 @@
         <v>4</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>771</v>
       </c>
@@ -710,8 +793,15 @@
         <v>4</v>
       </c>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>805</v>
       </c>
@@ -722,8 +812,15 @@
         <v>14</v>
       </c>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1521</v>
       </c>
@@ -739,8 +836,17 @@
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>814</v>
       </c>
@@ -754,8 +860,17 @@
         <v>4</v>
       </c>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>851</v>
       </c>
@@ -769,8 +884,15 @@
         <v>4</v>
       </c>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1391</v>
       </c>
@@ -784,8 +906,15 @@
         <v>4</v>
       </c>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4304</v>
       </c>
@@ -801,8 +930,15 @@
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3548</v>
       </c>
@@ -818,8 +954,17 @@
       <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>777</v>
       </c>
@@ -835,8 +980,17 @@
       <c r="E20" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4305</v>
       </c>
@@ -852,8 +1006,17 @@
       <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2459</v>
       </c>
@@ -869,8 +1032,15 @@
       <c r="E22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3188</v>
       </c>
@@ -883,8 +1053,15 @@
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3668</v>
       </c>
@@ -898,8 +1075,15 @@
         <v>4</v>
       </c>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3186</v>
       </c>
@@ -915,8 +1099,17 @@
       <c r="E25" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>746</v>
       </c>
@@ -929,8 +1122,15 @@
       <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="9"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>4058</v>
       </c>
@@ -946,8 +1146,15 @@
       <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>829</v>
       </c>
@@ -961,8 +1168,17 @@
         <v>4</v>
       </c>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>749</v>
       </c>
@@ -978,8 +1194,17 @@
       <c r="E29" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1424</v>
       </c>
@@ -995,8 +1220,17 @@
       <c r="E30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>938</v>
       </c>
@@ -1012,8 +1246,15 @@
       <c r="E31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>940</v>
       </c>
@@ -1029,8 +1270,17 @@
       <c r="E32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1477</v>
       </c>
@@ -1041,8 +1291,15 @@
         <v>34</v>
       </c>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1462</v>
       </c>
@@ -1058,8 +1315,17 @@
       <c r="E34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2111</v>
       </c>
@@ -1075,8 +1341,17 @@
       <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>754</v>
       </c>
@@ -1092,8 +1367,17 @@
       <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="F36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>3</v>
       </c>
@@ -1105,6 +1389,16 @@
         <f>COUNTA(E4:E36)</f>
         <v>20</v>
       </c>
+      <c r="F37" s="7">
+        <f>COUNTA(F4:F36)</f>
+        <v>16</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
